--- a/celeb/actors_final_0515.xlsx
+++ b/celeb/actors_final_0515.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimkyuri/Documents/학교공부/4-1/sluv/crawling/celeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB77B9-ED98-D842-88D4-E34EEBAC9ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABCB86-EB85-6141-87D4-F5C69FCCC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="3153">
   <si>
     <t>Seo Hyunjin</t>
   </si>
@@ -9484,48 +9484,6 @@
   </si>
   <si>
     <t>이미연</t>
-  </si>
-  <si>
-    <t>Lee Yoonhoi</t>
-  </si>
-  <si>
-    <t>이윤회</t>
-  </si>
-  <si>
-    <t>Kim Sunhye</t>
-  </si>
-  <si>
-    <t>김선혜</t>
-  </si>
-  <si>
-    <t>Choi Jinri</t>
-  </si>
-  <si>
-    <t>최진리</t>
-  </si>
-  <si>
-    <t>Park Woong</t>
-  </si>
-  <si>
-    <t>박웅</t>
-  </si>
-  <si>
-    <t>Kang Yeseo</t>
-  </si>
-  <si>
-    <t>강예서</t>
-  </si>
-  <si>
-    <t>Park Hyesook</t>
-  </si>
-  <si>
-    <t>박혜숙</t>
-  </si>
-  <si>
-    <t>Do Yonggu</t>
-  </si>
-  <si>
-    <t>도용구</t>
   </si>
   <si>
     <t>Um Taewoong</t>
@@ -9878,10 +9836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1590"/>
+  <dimension ref="A1:D1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
-      <selection activeCell="P1075" sqref="P1075"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="F1006" sqref="F1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -32748,7 +32706,7 @@
     </row>
     <row r="1525" spans="1:4">
       <c r="A1525">
-        <f t="shared" ref="A1525:A1588" si="25">ROW()+78</f>
+        <f t="shared" ref="A1525:A1582" si="25">ROW()+78</f>
         <v>1603</v>
       </c>
       <c r="B1525">
@@ -33618,122 +33576,17 @@
     </row>
     <row r="1583" spans="1:4">
       <c r="A1583">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="A1583" si="26">ROW()+78</f>
         <v>1661</v>
       </c>
       <c r="B1583">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1583" t="s">
         <v>3151</v>
       </c>
       <c r="D1583" t="s">
         <v>3152</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:4">
-      <c r="A1584">
-        <f t="shared" si="25"/>
-        <v>1662</v>
-      </c>
-      <c r="B1584">
-        <v>11</v>
-      </c>
-      <c r="C1584" t="s">
-        <v>3153</v>
-      </c>
-      <c r="D1584" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:4">
-      <c r="A1585">
-        <f t="shared" si="25"/>
-        <v>1663</v>
-      </c>
-      <c r="B1585">
-        <v>11</v>
-      </c>
-      <c r="C1585" t="s">
-        <v>3155</v>
-      </c>
-      <c r="D1585" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:4">
-      <c r="A1586">
-        <f t="shared" si="25"/>
-        <v>1664</v>
-      </c>
-      <c r="B1586">
-        <v>11</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D1586" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:4">
-      <c r="A1587">
-        <f t="shared" si="25"/>
-        <v>1665</v>
-      </c>
-      <c r="B1587">
-        <v>11</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>3159</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:4">
-      <c r="A1588">
-        <f t="shared" si="25"/>
-        <v>1666</v>
-      </c>
-      <c r="B1588">
-        <v>11</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:4">
-      <c r="A1589">
-        <f t="shared" ref="A1589:A1590" si="26">ROW()+78</f>
-        <v>1667</v>
-      </c>
-      <c r="B1589">
-        <v>12</v>
-      </c>
-      <c r="C1589" t="s">
-        <v>3163</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:4">
-      <c r="A1590">
-        <f t="shared" si="26"/>
-        <v>1668</v>
-      </c>
-      <c r="B1590">
-        <v>12</v>
-      </c>
-      <c r="C1590" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D1590" t="s">
-        <v>3166</v>
       </c>
     </row>
   </sheetData>
